--- a/FI/鑫业-GC.xlsx
+++ b/FI/鑫业-GC.xlsx
@@ -15,9 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0_ "/>
     <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -267,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -355,6 +356,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,7 +814,7 @@
       </c>
       <c r="P5" s="6" t="inlineStr">
         <is>
-          <t>订单日期：2024-06-23</t>
+          <t>订单日期：2024-06-25</t>
         </is>
       </c>
     </row>
@@ -822,7 +826,7 @@
       </c>
       <c r="P6" s="6" t="inlineStr">
         <is>
-          <t>交货期：2024-08-22</t>
+          <t>交货期：2024-08-24</t>
         </is>
       </c>
     </row>
@@ -907,29 +911,29 @@
       <c r="C10" s="36" t="n"/>
       <c r="D10" s="9" t="inlineStr">
         <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="G10" s="9" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="G10" s="9" t="inlineStr">
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
       </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>1X</t>
-        </is>
-      </c>
       <c r="I10" s="9" t="inlineStr">
         <is>
           <t>S/M</t>
@@ -937,12 +941,12 @@
       </c>
       <c r="J10" s="9" t="inlineStr">
         <is>
+          <t>M/L</t>
+        </is>
+      </c>
+      <c r="K10" s="9" t="inlineStr">
+        <is>
           <t>L/XL</t>
-        </is>
-      </c>
-      <c r="K10" s="9" t="inlineStr">
-        <is>
-          <t>S/M</t>
         </is>
       </c>
       <c r="L10" s="9" t="inlineStr">
@@ -960,22 +964,22 @@
       <c r="P10" s="36" t="n"/>
       <c r="Q10" s="36" t="n"/>
     </row>
-    <row r="11" ht="45" customHeight="1">
+    <row r="11" ht="90" customHeight="1">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>NF2409F211</t>
+          <t>SR0213</t>
         </is>
       </c>
       <c r="B11" s="22" t="n"/>
       <c r="C11" s="22" t="inlineStr"/>
       <c r="D11" s="22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E11" s="22" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F11" s="22" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G11" s="22" t="n">
         <v>15</v>
@@ -989,41 +993,47 @@
       <c r="J11" s="22" t="n">
         <v/>
       </c>
-      <c r="K11" s="22" t="n"/>
+      <c r="K11" s="22" t="n">
+        <v/>
+      </c>
       <c r="L11" s="22" t="n"/>
       <c r="M11" s="22" t="inlineStr">
         <is>
-          <t>BLUE MULTI</t>
-        </is>
-      </c>
-      <c r="N11" s="22" t="n">
-        <v>180</v>
-      </c>
-      <c r="O11" s="37">
-        <f>SUM(D11:J11)</f>
+          <t>Espresso</t>
+        </is>
+      </c>
+      <c r="N11" s="37" t="n">
+        <v>45509</v>
+      </c>
+      <c r="O11" s="38">
+        <f>SUM(D11:K11)</f>
         <v/>
       </c>
-      <c r="P11" s="38">
+      <c r="P11" s="39">
         <f>O11*N11</f>
         <v/>
       </c>
-      <c r="Q11" s="38" t="n"/>
-    </row>
-    <row r="12" ht="45" customHeight="1">
-      <c r="A12" s="36" t="n"/>
-      <c r="B12" s="36" t="n"/>
-      <c r="C12" s="36" t="n"/>
+      <c r="Q11" s="39" t="n"/>
+    </row>
+    <row r="12" ht="90" customHeight="1">
+      <c r="A12" s="22" t="inlineStr">
+        <is>
+          <t>SR0449</t>
+        </is>
+      </c>
+      <c r="B12" s="22" t="n"/>
+      <c r="C12" s="22" t="n"/>
       <c r="D12" s="22" t="n">
         <v>30</v>
       </c>
       <c r="E12" s="22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F12" s="22" t="n">
         <v>40</v>
       </c>
       <c r="G12" s="22" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H12" s="22" t="n">
         <v>10</v>
@@ -1034,25 +1044,27 @@
       <c r="J12" s="22" t="n">
         <v/>
       </c>
-      <c r="K12" s="22" t="n"/>
+      <c r="K12" s="22" t="n">
+        <v/>
+      </c>
       <c r="L12" s="22" t="n"/>
       <c r="M12" s="22" t="inlineStr">
         <is>
-          <t>BLUE MULTI</t>
-        </is>
-      </c>
-      <c r="N12" s="22" t="n">
-        <v>180</v>
-      </c>
-      <c r="O12" s="37">
-        <f>SUM(D12:J12)</f>
+          <t>Espresso Grounds</t>
+        </is>
+      </c>
+      <c r="N12" s="37" t="n">
+        <v>45510</v>
+      </c>
+      <c r="O12" s="38">
+        <f>SUM(D12:K12)</f>
         <v/>
       </c>
-      <c r="P12" s="38">
+      <c r="P12" s="39">
         <f>O12*N12</f>
         <v/>
       </c>
-      <c r="Q12" s="38" t="n"/>
+      <c r="Q12" s="39" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="11" t="n"/>
@@ -1069,15 +1081,15 @@
       <c r="L13" s="11" t="n"/>
       <c r="M13" s="11" t="n"/>
       <c r="N13" s="11" t="n"/>
-      <c r="O13" s="39">
+      <c r="O13" s="40">
         <f>SUM(O11:O12)</f>
         <v/>
       </c>
-      <c r="P13" s="40">
+      <c r="P13" s="41">
         <f>SUM(P11:P12)</f>
         <v/>
       </c>
-      <c r="Q13" s="41" t="n"/>
+      <c r="Q13" s="42" t="n"/>
     </row>
     <row r="14"/>
     <row r="15" ht="15.6" customHeight="1"/>
@@ -1126,18 +1138,21 @@
       <c r="U21" s="21" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A12"/>
+    <mergeCell ref="B12"/>
+    <mergeCell ref="C12"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B11"/>
     <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11"/>
     <mergeCell ref="D9:L9"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="67" horizontalDpi="300" verticalDpi="300"/>

--- a/FI/鑫业-GC.xlsx
+++ b/FI/鑫业-GC.xlsx
@@ -15,10 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0_ "/>
     <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -268,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -356,9 +355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -448,6 +444,111 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="819150" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2219325" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="647700" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="733425" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -707,7 +808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -814,7 +915,7 @@
       </c>
       <c r="P5" s="6" t="inlineStr">
         <is>
-          <t>订单日期：2024-06-25</t>
+          <t>订单日期：2024-06-30</t>
         </is>
       </c>
     </row>
@@ -826,7 +927,7 @@
       </c>
       <c r="P6" s="6" t="inlineStr">
         <is>
-          <t>交货期：2024-08-24</t>
+          <t>交货期：2024-08-29</t>
         </is>
       </c>
     </row>
@@ -1002,18 +1103,18 @@
           <t>Espresso</t>
         </is>
       </c>
-      <c r="N11" s="37" t="n">
-        <v>45509</v>
-      </c>
-      <c r="O11" s="38">
+      <c r="N11" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" s="37">
         <f>SUM(D11:K11)</f>
         <v/>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="38">
         <f>O11*N11</f>
         <v/>
       </c>
-      <c r="Q11" s="39" t="n"/>
+      <c r="Q11" s="38" t="n"/>
     </row>
     <row r="12" ht="90" customHeight="1">
       <c r="A12" s="22" t="inlineStr">
@@ -1053,18 +1154,18 @@
           <t>Espresso Grounds</t>
         </is>
       </c>
-      <c r="N12" s="37" t="n">
-        <v>45510</v>
-      </c>
-      <c r="O12" s="38">
+      <c r="N12" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" s="37">
         <f>SUM(D12:K12)</f>
         <v/>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="38">
         <f>O12*N12</f>
         <v/>
       </c>
-      <c r="Q12" s="39" t="n"/>
+      <c r="Q12" s="38" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="11" t="n"/>
@@ -1081,15 +1182,15 @@
       <c r="L13" s="11" t="n"/>
       <c r="M13" s="11" t="n"/>
       <c r="N13" s="11" t="n"/>
-      <c r="O13" s="40">
+      <c r="O13" s="39">
         <f>SUM(O11:O12)</f>
         <v/>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="40">
         <f>SUM(P11:P12)</f>
         <v/>
       </c>
-      <c r="Q13" s="42" t="n"/>
+      <c r="Q13" s="41" t="n"/>
     </row>
     <row r="14"/>
     <row r="15" ht="15.6" customHeight="1"/>
@@ -1156,5 +1257,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="67" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>